--- a/data/Fredagsbarer_oversigt.xlsx
+++ b/data/Fredagsbarer_oversigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wibe/Desktop/CogSci/Spatial_analytics/final_project_spatial_analytics_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F9477-A71F-054C-ABC6-F9A97760B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF086D71-8991-584A-A117-902D713C23D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26460" windowHeight="21580" xr2:uid="{02E799B7-E75C-884A-80F8-C0143D3FA386}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="220">
   <si>
     <t>Theos Bar</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Arken</t>
   </si>
   <si>
-    <t>BarBund</t>
-  </si>
-  <si>
     <t>Paideia</t>
   </si>
   <si>
@@ -77,18 +74,12 @@
     <t>Studenterbaren</t>
   </si>
   <si>
-    <t>Studentercaféen</t>
-  </si>
-  <si>
     <t>Klubben</t>
   </si>
   <si>
     <t>Økonomisk Forening/Konverterbar</t>
   </si>
   <si>
-    <t>The CORNER of Birk</t>
-  </si>
-  <si>
     <t>Umbilicus</t>
   </si>
   <si>
@@ -146,33 +137,18 @@
     <t>Samfundsfaglig Fredagsbar*</t>
   </si>
   <si>
-    <t>Jens Chr. Skous Vej 3, 8000 Aarhus</t>
-  </si>
-  <si>
     <t>56.172225, 10.205504</t>
   </si>
   <si>
-    <t>Jens Chr. Skous Vej 2, 8000 Aarhus</t>
-  </si>
-  <si>
     <t>56.172649, 10.206183</t>
   </si>
   <si>
     <t>56.172894, 10.206625</t>
   </si>
   <si>
-    <t>Helsingforsgade 8, 8200 Aarhus</t>
-  </si>
-  <si>
     <t>56.171192, 10.192434</t>
   </si>
   <si>
-    <t>Fredagsbar for Klassisk Arkæologi og Klassisk Filologi på Aarhus Uni.</t>
-  </si>
-  <si>
-    <t>Jens Chr. Skousvej 3 1451 - 116</t>
-  </si>
-  <si>
     <t>56.172048, 10.205637</t>
   </si>
   <si>
@@ -185,9 +161,6 @@
     <t>5008 - kælderen</t>
   </si>
   <si>
-    <t>Historisk fredagsbar</t>
-  </si>
-  <si>
     <t>1484 - 134</t>
   </si>
   <si>
@@ -197,9 +170,6 @@
     <t>1485 - 137</t>
   </si>
   <si>
-    <t>Teologi og Religionsvidenskabs</t>
-  </si>
-  <si>
     <t>Institut for Æstetiske Fag</t>
   </si>
   <si>
@@ -209,9 +179,6 @@
     <t>Filosofi og idéhistorie</t>
   </si>
   <si>
-    <t>Langelandsgade 139</t>
-  </si>
-  <si>
     <t>KaserneBaren</t>
   </si>
   <si>
@@ -251,9 +218,6 @@
     <t>56.167461, 10.197725</t>
   </si>
   <si>
-    <t>arkæologisk fredagsbar</t>
-  </si>
-  <si>
     <t>Moesgård Allé 20, Højbjerg, Denmark</t>
   </si>
   <si>
@@ -284,9 +248,6 @@
     <t>Arabisk- og Islamstudier</t>
   </si>
   <si>
-    <t>Jens Chr. Skous Vej 7</t>
-  </si>
-  <si>
     <t>1465 - 115</t>
   </si>
   <si>
@@ -308,9 +269,6 @@
     <t>https://www.facebook.com/brocasbodega/?locale=da_DK</t>
   </si>
   <si>
-    <t>Jens Chr. Skous vej 4</t>
-  </si>
-  <si>
     <t>Cognitive Science</t>
   </si>
   <si>
@@ -326,9 +284,6 @@
     <t>12.00-03.00</t>
   </si>
   <si>
-    <t>Nordre Ringgade 3</t>
-  </si>
-  <si>
     <t>Fælles studenterbar for alle studerende</t>
   </si>
   <si>
@@ -359,9 +314,6 @@
     <t>15.00-20.00</t>
   </si>
   <si>
-    <t>Økonomisk Forenings fredagsbar</t>
-  </si>
-  <si>
     <t>Fuglesangs Allé 26, Aarhus, Denmark</t>
   </si>
   <si>
@@ -386,24 +338,9 @@
     <t>https://www.facebook.com/samfundsfagligfredagsbar/?locale=da_DK</t>
   </si>
   <si>
-    <t>Birk Centerpark 15, Herning, Denmark</t>
-  </si>
-  <si>
-    <t>11.00-18-00</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CornerOfBirkFridayBar/</t>
-  </si>
-  <si>
-    <t>56.129270, 9.030998</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/JeresUMBI/</t>
   </si>
   <si>
-    <t>Medicins fredagsbar</t>
-  </si>
-  <si>
     <t>15.00-02.00</t>
   </si>
   <si>
@@ -443,12 +380,6 @@
     <t>Dalgas Avenue 4, Aarhus, Denmark</t>
   </si>
   <si>
-    <t>matematisk institut på Aarhus Universitet</t>
-  </si>
-  <si>
-    <t>Idræts fredagsbar</t>
-  </si>
-  <si>
     <t>56.143459, 10.199314</t>
   </si>
   <si>
@@ -464,27 +395,18 @@
     <t>1525 - 231</t>
   </si>
   <si>
-    <t>fysisk fredagsbar</t>
-  </si>
-  <si>
     <t>16.00-22.00</t>
   </si>
   <si>
     <t>https://www.facebook.com/FysiskFredagsBar/?locale=da_DK</t>
   </si>
   <si>
-    <t>Ny Munkegade 120</t>
-  </si>
-  <si>
     <t>56.167368, 10.198912</t>
   </si>
   <si>
     <t>https://www.facebook.com/fredagscafeen.dk/?locale=da_DK</t>
   </si>
   <si>
-    <t>Kemisk fredagsbar</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/lkymiaAU/</t>
   </si>
   <si>
@@ -515,15 +437,9 @@
     <t>Finlandsgade 22, Aarhus, Denmark</t>
   </si>
   <si>
-    <t>Ingenørernes fredagsbar</t>
-  </si>
-  <si>
     <t>56.171895, 10.191195</t>
   </si>
   <si>
-    <t>nanoscience</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/Nanobaren/</t>
   </si>
   <si>
@@ -539,15 +455,9 @@
     <t>https://www.facebook.com/TAAGEKAMMERET/?locale=da_DK</t>
   </si>
   <si>
-    <t>dækker fagene matematik, matematik-økonomi, datavidenskab, datalogi, IT-Produktudvikling, fysik og nanoscience</t>
-  </si>
-  <si>
     <t>1873 K3</t>
   </si>
   <si>
-    <t>Universitetsbyen 81, aarhus</t>
-  </si>
-  <si>
     <t>Molekylærbiologi</t>
   </si>
   <si>
@@ -569,9 +479,6 @@
     <t>56.172709, 10.206343</t>
   </si>
   <si>
-    <t>ngeniør- og maskinmester-studerende</t>
-  </si>
-  <si>
     <t>Inge Lehmanns Gade 10, Aarhus, Denmark</t>
   </si>
   <si>
@@ -593,24 +500,12 @@
     <t>Jens Chr. Skous Vej 7, Aarhus, Denmark</t>
   </si>
   <si>
-    <t>Globale Studiers Fredagsbar</t>
-  </si>
-  <si>
     <t>56.172883, 10.204688</t>
   </si>
   <si>
-    <t>Geologisk Fredagsbar</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/groups/chaosbar/?locale=da_DK</t>
   </si>
   <si>
-    <t>Gustav Wieds Vej 10A, Aarhus</t>
-  </si>
-  <si>
-    <t>Civilingeniørernes</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/approksimerbar/</t>
   </si>
   <si>
@@ -686,9 +581,6 @@
     <t>56.163164, 10.209482</t>
   </si>
   <si>
-    <t>Høegh-Guldbergs Gade 2, 8000 Aarhus</t>
-  </si>
-  <si>
     <t>floor_quality</t>
   </si>
   <si>
@@ -708,6 +600,103 @@
   </si>
   <si>
     <t>party_factor</t>
+  </si>
+  <si>
+    <t>Gustav Wieds Vej 10, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Universitetsbyen 81, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Ny Munkegade 120, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Høegh-Guldbergs Gade 2, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Jens Chr. Skous Vej 3, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Jens Chr. Skous Vej 2, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Helsingforsgade 8, 8200 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Jens Chr. Skousvej 3, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Langelandsgade 139, Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Nordre Ringgade 3, 8000 Aarhus, Denmark</t>
+  </si>
+  <si>
+    <t>Teologi og Religionsvidenskab</t>
+  </si>
+  <si>
+    <t>Historie</t>
+  </si>
+  <si>
+    <t>Klassisk Arkæologi og Klassisk Filologi</t>
+  </si>
+  <si>
+    <t>Arkæologi</t>
+  </si>
+  <si>
+    <t>Park kollegiernes fællesbar</t>
+  </si>
+  <si>
+    <t>Økonomi</t>
+  </si>
+  <si>
+    <t>Medicin</t>
+  </si>
+  <si>
+    <t>Idræt</t>
+  </si>
+  <si>
+    <t>Matematisk institut</t>
+  </si>
+  <si>
+    <t>Fysik</t>
+  </si>
+  <si>
+    <t>Ingenørerne</t>
+  </si>
+  <si>
+    <t>Kemi</t>
+  </si>
+  <si>
+    <t>Nanoscience</t>
+  </si>
+  <si>
+    <t>Matematik, matematik-økonomi, datavidenskab, datalogi, IT-Produktudvikling, fysik og nanoscience</t>
+  </si>
+  <si>
+    <t>Ingeniør- og maskinmester-studerende</t>
+  </si>
+  <si>
+    <t>Globale Studier</t>
+  </si>
+  <si>
+    <t>Geologi</t>
+  </si>
+  <si>
+    <t>Civilingeniørerne</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/eforen/?locale=da_DK</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BeercepsMaximus/</t>
+  </si>
+  <si>
+    <t>18.00-22.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.166309, 10.199766
+</t>
   </si>
 </sst>
 </file>
@@ -862,13 +851,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1184,16 +1173,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C65815B-EEE0-E047-A4DF-CBD9515A94D9}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="86.5" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
@@ -1201,69 +1192,69 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>36</v>
+      <c r="B2" t="s">
+        <v>192</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="14">
+        <v>198</v>
+      </c>
+      <c r="E2">
         <v>1451</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>204</v>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" t="s">
+        <v>169</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -1275,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -1285,26 +1276,26 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>38</v>
+      <c r="B3" t="s">
+        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>205</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>170</v>
       </c>
       <c r="I3">
         <v>7</v>
@@ -1316,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M3">
         <v>9</v>
@@ -1326,26 +1317,26 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>38</v>
+      <c r="B4" t="s">
+        <v>193</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>183</v>
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>204</v>
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
+        <v>169</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -1357,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -1367,26 +1358,26 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>41</v>
+      <c r="B5" t="s">
+        <v>194</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>206</v>
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -1398,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -1408,26 +1399,26 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>44</v>
+      <c r="B6" t="s">
+        <v>195</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
       </c>
       <c r="I6">
         <v>8</v>
@@ -1439,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -1449,26 +1440,26 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>63</v>
+      <c r="B7" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>206</v>
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1480,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="M7">
         <v>8</v>
@@ -1488,28 +1479,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>206</v>
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1521,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1529,28 +1520,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>206</v>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -1562,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1573,25 +1564,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="14">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
         <v>4206</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>206</v>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1603,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -1614,25 +1605,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="14">
+        <v>201</v>
+      </c>
+      <c r="E11">
         <v>4206</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>206</v>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1644,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1654,29 +1645,41 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
-        <v>206</v>
+      <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>1485</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1684,25 +1687,25 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1485</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>206</v>
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>170</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1711,13 +1714,13 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1725,40 +1728,34 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>205</v>
+        <v>79</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" t="s">
+        <v>170</v>
       </c>
       <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14">
         <v>4</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>8</v>
-      </c>
-      <c r="L14" t="s">
-        <v>221</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1766,32 +1763,40 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <v>1422</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1799,189 +1804,204 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1422</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>205</v>
+        <v>84</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>170</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>7</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>205</v>
+      <c r="B17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>171</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="K17">
-        <v>9</v>
-      </c>
       <c r="L17" t="s">
-        <v>221</v>
+        <v>186</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>1320</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>205</v>
+      <c r="H18" t="s">
+        <v>171</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>7</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>206</v>
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19">
+        <v>1150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>171</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1320</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>206</v>
+        <v>105</v>
+      </c>
+      <c r="E20">
+        <v>1150</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>171</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1989,65 +2009,66 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>206</v>
+        <v>112</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21">
+        <v>1614</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>171</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21">
         <v>4</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>221</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>123</v>
+      <c r="B22" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1150</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>206</v>
+        <v>114</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" t="s">
+        <v>171</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>7</v>
@@ -2056,51 +2077,51 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>127</v>
+      <c r="B23" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1150</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="14" t="s">
         <v>206</v>
       </c>
+      <c r="E23">
+        <v>1521</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
       <c r="I23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2108,37 +2129,37 @@
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1614</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J24">
         <v>6</v>
       </c>
       <c r="K24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M24">
         <v>4</v>
@@ -2148,76 +2169,79 @@
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>134</v>
+      <c r="B25" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="s">
-        <v>206</v>
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>169</v>
       </c>
       <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
         <v>6</v>
       </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="K25">
-        <v>8</v>
-      </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>139</v>
+      <c r="B26" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1521</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="E26">
+        <v>1510</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>169</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2225,25 +2249,25 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="E27">
+        <v>5125</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>169</v>
       </c>
       <c r="I27">
         <v>8</v>
@@ -2252,52 +2276,54 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>154</v>
+      <c r="B28" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>204</v>
+        <v>136</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1590</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" t="s">
+        <v>169</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K28">
         <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2305,40 +2331,34 @@
         <v>24</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1510</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>204</v>
+        <v>211</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2346,40 +2366,37 @@
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="14">
-        <v>5125</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>204</v>
+        <v>140</v>
+      </c>
+      <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>171</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2387,40 +2404,40 @@
         <v>26</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="12">
-        <v>1590</v>
-      </c>
-      <c r="F31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>204</v>
+      <c r="E31">
+        <v>1222</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" t="s">
+        <v>171</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -2428,70 +2445,78 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>204</v>
+        <v>66</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>1485</v>
+      </c>
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>171</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
         <v>5</v>
       </c>
-      <c r="K32">
-        <v>9</v>
-      </c>
       <c r="L32" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>169</v>
+      <c r="B33" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" t="s">
+        <v>171</v>
       </c>
       <c r="I33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M33">
         <v>3</v>
@@ -2502,81 +2527,81 @@
         <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="14">
-        <v>1222</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>206</v>
-      </c>
       <c r="I34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34" t="s">
+        <v>186</v>
+      </c>
+      <c r="M34">
         <v>4</v>
-      </c>
-      <c r="K34">
-        <v>8</v>
-      </c>
-      <c r="L34" t="s">
-        <v>221</v>
-      </c>
-      <c r="M34">
-        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1485</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>206</v>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35">
+        <v>1672</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" t="s">
+        <v>171</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J35">
         <v>7</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2584,169 +2609,44 @@
         <v>31</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" t="s">
+        <v>171</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K36">
         <v>6</v>
       </c>
       <c r="L36" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I37">
-        <v>7</v>
-      </c>
-      <c r="J37">
-        <v>6</v>
-      </c>
-      <c r="K37">
-        <v>8</v>
-      </c>
-      <c r="L37" t="s">
-        <v>222</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="14">
-        <v>1672</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
-      </c>
-      <c r="J38">
-        <v>7</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
-      </c>
-      <c r="L38" t="s">
-        <v>221</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39">
-        <v>6</v>
-      </c>
-      <c r="J39">
-        <v>6</v>
-      </c>
-      <c r="K39">
-        <v>6</v>
-      </c>
-      <c r="L39" t="s">
-        <v>221</v>
-      </c>
-      <c r="M39">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" xr:uid="{F858E3E0-2033-C24A-BC78-BFF9879D9A7C}"/>
-    <hyperlink ref="G18" r:id="rId2" xr:uid="{2702E758-C41E-C444-88D4-31DDBC11A07B}"/>
-    <hyperlink ref="B22" r:id="rId3" display="https://www.google.com/maps/place/Ole+Worms+All%C3%A9+2,+8000+Aarhus/data=!4m2!3m1!1s0x464c3fc0a4ef2689:0x3c2d5b5df82d3530?sa=X&amp;ved=2ahUKEwiVv_yQtpHnAhVG4aQKHWKICEMQ8gEwAHoECAsQAQ" xr:uid="{BCA5A256-01BD-4047-BFC5-21699A997CE1}"/>
-    <hyperlink ref="D38" r:id="rId4" display="https://www.facebook.com/groups/chaosbar/" xr:uid="{0880EC1E-C2B5-E64B-89B1-68924F1DE4B1}"/>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{F858E3E0-2033-C24A-BC78-BFF9879D9A7C}"/>
+    <hyperlink ref="G16" r:id="rId2" xr:uid="{2702E758-C41E-C444-88D4-31DDBC11A07B}"/>
+    <hyperlink ref="B19" r:id="rId3" display="https://www.google.com/maps/place/Ole+Worms+All%C3%A9+2,+8000+Aarhus/data=!4m2!3m1!1s0x464c3fc0a4ef2689:0x3c2d5b5df82d3530?sa=X&amp;ved=2ahUKEwiVv_yQtpHnAhVG4aQKHWKICEMQ8gEwAHoECAsQAQ" xr:uid="{BCA5A256-01BD-4047-BFC5-21699A997CE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Fredagsbarer_oversigt.xlsx
+++ b/data/Fredagsbarer_oversigt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wibe/Desktop/CogSci/Spatial_analytics/final_project_spatial_analytics_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF086D71-8991-584A-A117-902D713C23D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC042906-1DF6-0140-B628-E64742A2C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26460" windowHeight="21580" xr2:uid="{02E799B7-E75C-884A-80F8-C0143D3FA386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{02E799B7-E75C-884A-80F8-C0143D3FA386}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -857,7 +857,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1176,8 +1175,8 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -1301,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1342,13 +1341,13 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4">
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -1383,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1430,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -1471,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M7">
         <v>8</v>
@@ -1547,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -1676,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -1957,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -2320,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M28">
         <v>6</v>
@@ -2333,7 +2332,7 @@
       <c r="B29" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" t="s">
         <v>219</v>
       </c>
       <c r="D29" s="9" t="s">
